--- a/demos/demo01_GE_template.xlsx
+++ b/demos/demo01_GE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\6_Paper_related\calculate_b_matrix\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9797057-E69B-4869-8C37-EBC35AB57B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4AC064-E666-4332-A689-9099CEC10DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1800" windowWidth="18444" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="3396" windowWidth="13536" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradient_Info" sheetId="1" r:id="rId1"/>
@@ -130,10 +130,10 @@
     <t>z_axis</t>
   </si>
   <si>
+    <t>0: GE/SE/EPI/RARE; 1: SPEN</t>
+  </si>
+  <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>0: GE/SE/EPI/RARE; 1: SPEN</t>
   </si>
 </sst>
 </file>
@@ -922,12 +922,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
     <col min="3" max="3" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
@@ -969,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
